--- a/natmiOut/OldD7/LR-pairs_lrc2p/Fzd8-Ckap4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Fzd8-Ckap4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Ckap4</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.42264164903421</v>
+        <v>3.554362333333333</v>
       </c>
       <c r="H2">
-        <v>3.42264164903421</v>
+        <v>10.663087</v>
       </c>
       <c r="I2">
-        <v>0.2060730222461505</v>
+        <v>0.2019894022634335</v>
       </c>
       <c r="J2">
-        <v>0.2060730222461505</v>
+        <v>0.2019894022634335</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.02511579411601</v>
+        <v>12.23245933333333</v>
       </c>
       <c r="N2">
-        <v>8.02511579411601</v>
+        <v>36.697378</v>
       </c>
       <c r="O2">
-        <v>0.1115771836044339</v>
+        <v>0.1575479463924517</v>
       </c>
       <c r="P2">
-        <v>0.1115771836044339</v>
+        <v>0.1575479463924517</v>
       </c>
       <c r="Q2">
-        <v>27.4670955552637</v>
+        <v>43.47859269843178</v>
       </c>
       <c r="R2">
-        <v>27.4670955552637</v>
+        <v>391.307334285886</v>
       </c>
       <c r="S2">
-        <v>0.02299304743907933</v>
+        <v>0.03182301551964278</v>
       </c>
       <c r="T2">
-        <v>0.02299304743907933</v>
+        <v>0.03182301551964278</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.42264164903421</v>
+        <v>3.554362333333333</v>
       </c>
       <c r="H3">
-        <v>3.42264164903421</v>
+        <v>10.663087</v>
       </c>
       <c r="I3">
-        <v>0.2060730222461505</v>
+        <v>0.2019894022634335</v>
       </c>
       <c r="J3">
-        <v>0.2060730222461505</v>
+        <v>0.2019894022634335</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>50.7513799624237</v>
+        <v>50.75626633333334</v>
       </c>
       <c r="N3">
-        <v>50.7513799624237</v>
+        <v>152.268799</v>
       </c>
       <c r="O3">
-        <v>0.7056217237884105</v>
+        <v>0.653715275846002</v>
       </c>
       <c r="P3">
-        <v>0.7056217237884105</v>
+        <v>0.653715275846002</v>
       </c>
       <c r="Q3">
-        <v>173.7037868053516</v>
+        <v>180.4061612358348</v>
       </c>
       <c r="R3">
-        <v>173.7037868053516</v>
+        <v>1623.655451122513</v>
       </c>
       <c r="S3">
-        <v>0.1454096011836162</v>
+        <v>0.1320435578186095</v>
       </c>
       <c r="T3">
-        <v>0.1454096011836162</v>
+        <v>0.1320435578186095</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.42264164903421</v>
+        <v>3.554362333333333</v>
       </c>
       <c r="H4">
-        <v>3.42264164903421</v>
+        <v>10.663087</v>
       </c>
       <c r="I4">
-        <v>0.2060730222461505</v>
+        <v>0.2019894022634335</v>
       </c>
       <c r="J4">
-        <v>0.2060730222461505</v>
+        <v>0.2019894022634335</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.49722321995337</v>
+        <v>7.380491999999999</v>
       </c>
       <c r="N4">
-        <v>6.49722321995337</v>
+        <v>22.141476</v>
       </c>
       <c r="O4">
-        <v>0.090334131834366</v>
+        <v>0.09505703851369859</v>
       </c>
       <c r="P4">
-        <v>0.090334131834366</v>
+        <v>0.09505703851369859</v>
       </c>
       <c r="Q4">
-        <v>22.23766679568456</v>
+        <v>26.232942766268</v>
       </c>
       <c r="R4">
-        <v>22.23766679568456</v>
+        <v>236.0964848964119</v>
       </c>
       <c r="S4">
-        <v>0.01861542755909</v>
+        <v>0.01920051439031415</v>
       </c>
       <c r="T4">
-        <v>0.01861542755909</v>
+        <v>0.01920051439031416</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.42264164903421</v>
+        <v>3.554362333333333</v>
       </c>
       <c r="H5">
-        <v>3.42264164903421</v>
+        <v>10.663087</v>
       </c>
       <c r="I5">
-        <v>0.2060730222461505</v>
+        <v>0.2019894022634335</v>
       </c>
       <c r="J5">
-        <v>0.2060730222461505</v>
+        <v>0.2019894022634335</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.65062554332238</v>
+        <v>7.273554666666667</v>
       </c>
       <c r="N5">
-        <v>6.65062554332238</v>
+        <v>21.820664</v>
       </c>
       <c r="O5">
-        <v>0.09246696077278958</v>
+        <v>0.09367973924784764</v>
       </c>
       <c r="P5">
-        <v>0.09246696077278958</v>
+        <v>0.09367973924784764</v>
       </c>
       <c r="Q5">
-        <v>22.76270797670595</v>
+        <v>25.85284873664089</v>
       </c>
       <c r="R5">
-        <v>22.76270797670595</v>
+        <v>232.675638629768</v>
       </c>
       <c r="S5">
-        <v>0.019054946064365</v>
+        <v>0.01892231453486706</v>
       </c>
       <c r="T5">
-        <v>0.019054946064365</v>
+        <v>0.01892231453486706</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.4481873681165</v>
+        <v>11.625787</v>
       </c>
       <c r="H6">
-        <v>11.4481873681165</v>
+        <v>34.877361</v>
       </c>
       <c r="I6">
-        <v>0.6892812079388072</v>
+        <v>0.6606770910634029</v>
       </c>
       <c r="J6">
-        <v>0.6892812079388072</v>
+        <v>0.6606770910634029</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.02511579411601</v>
+        <v>12.23245933333333</v>
       </c>
       <c r="N6">
-        <v>8.02511579411601</v>
+        <v>36.697378</v>
       </c>
       <c r="O6">
-        <v>0.1115771836044339</v>
+        <v>0.1575479463924517</v>
       </c>
       <c r="P6">
-        <v>0.1115771836044339</v>
+        <v>0.1575479463924517</v>
       </c>
       <c r="Q6">
-        <v>91.87302926187111</v>
+        <v>142.2119666954953</v>
       </c>
       <c r="R6">
-        <v>91.87302926187111</v>
+        <v>1279.907700259458</v>
       </c>
       <c r="S6">
-        <v>0.07690805589327429</v>
+        <v>0.1040883189255779</v>
       </c>
       <c r="T6">
-        <v>0.07690805589327429</v>
+        <v>0.1040883189255779</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.4481873681165</v>
+        <v>11.625787</v>
       </c>
       <c r="H7">
-        <v>11.4481873681165</v>
+        <v>34.877361</v>
       </c>
       <c r="I7">
-        <v>0.6892812079388072</v>
+        <v>0.6606770910634029</v>
       </c>
       <c r="J7">
-        <v>0.6892812079388072</v>
+        <v>0.6606770910634029</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>50.7513799624237</v>
+        <v>50.75626633333334</v>
       </c>
       <c r="N7">
-        <v>50.7513799624237</v>
+        <v>152.268799</v>
       </c>
       <c r="O7">
-        <v>0.7056217237884105</v>
+        <v>0.653715275846002</v>
       </c>
       <c r="P7">
-        <v>0.7056217237884105</v>
+        <v>0.653715275846002</v>
       </c>
       <c r="Q7">
-        <v>581.0113070002998</v>
+        <v>590.0815413066044</v>
       </c>
       <c r="R7">
-        <v>581.0113070002998</v>
+        <v>5310.733871759439</v>
       </c>
       <c r="S7">
-        <v>0.4863717941207389</v>
+        <v>0.4318947068296466</v>
       </c>
       <c r="T7">
-        <v>0.4863717941207389</v>
+        <v>0.4318947068296466</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.4481873681165</v>
+        <v>11.625787</v>
       </c>
       <c r="H8">
-        <v>11.4481873681165</v>
+        <v>34.877361</v>
       </c>
       <c r="I8">
-        <v>0.6892812079388072</v>
+        <v>0.6606770910634029</v>
       </c>
       <c r="J8">
-        <v>0.6892812079388072</v>
+        <v>0.6606770910634029</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.49722321995337</v>
+        <v>7.380491999999999</v>
       </c>
       <c r="N8">
-        <v>6.49722321995337</v>
+        <v>22.141476</v>
       </c>
       <c r="O8">
-        <v>0.090334131834366</v>
+        <v>0.09505703851369859</v>
       </c>
       <c r="P8">
-        <v>0.090334131834366</v>
+        <v>0.09505703851369859</v>
       </c>
       <c r="Q8">
-        <v>74.38142879450338</v>
+        <v>85.80402794720401</v>
       </c>
       <c r="R8">
-        <v>74.38142879450338</v>
+        <v>772.2362515248359</v>
       </c>
       <c r="S8">
-        <v>0.06226561950889526</v>
+        <v>0.06280200769033224</v>
       </c>
       <c r="T8">
-        <v>0.06226561950889526</v>
+        <v>0.06280200769033224</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.4481873681165</v>
+        <v>11.625787</v>
       </c>
       <c r="H9">
-        <v>11.4481873681165</v>
+        <v>34.877361</v>
       </c>
       <c r="I9">
-        <v>0.6892812079388072</v>
+        <v>0.6606770910634029</v>
       </c>
       <c r="J9">
-        <v>0.6892812079388072</v>
+        <v>0.6606770910634029</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.65062554332238</v>
+        <v>7.273554666666667</v>
       </c>
       <c r="N9">
-        <v>6.65062554332238</v>
+        <v>21.820664</v>
       </c>
       <c r="O9">
-        <v>0.09246696077278958</v>
+        <v>0.09367973924784764</v>
       </c>
       <c r="P9">
-        <v>0.09246696077278958</v>
+        <v>0.09367973924784764</v>
       </c>
       <c r="Q9">
-        <v>76.1376073351362</v>
+        <v>84.56079728752267</v>
       </c>
       <c r="R9">
-        <v>76.1376073351362</v>
+        <v>761.047175587704</v>
       </c>
       <c r="S9">
-        <v>0.0637357384158987</v>
+        <v>0.06189205761784607</v>
       </c>
       <c r="T9">
-        <v>0.0637357384158987</v>
+        <v>0.06189205761784607</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1030,49 +1030,49 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>1.73804880551705</v>
+        <v>0.02609533333333333</v>
       </c>
       <c r="H10">
-        <v>1.73804880551705</v>
+        <v>0.07828599999999999</v>
       </c>
       <c r="I10">
-        <v>0.1046457698150422</v>
+        <v>0.001482961017348462</v>
       </c>
       <c r="J10">
-        <v>0.1046457698150422</v>
+        <v>0.001482961017348462</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.02511579411601</v>
+        <v>12.23245933333333</v>
       </c>
       <c r="N10">
-        <v>8.02511579411601</v>
+        <v>36.697378</v>
       </c>
       <c r="O10">
-        <v>0.1115771836044339</v>
+        <v>0.1575479463924517</v>
       </c>
       <c r="P10">
-        <v>0.1115771836044339</v>
+        <v>0.1575479463924517</v>
       </c>
       <c r="Q10">
-        <v>13.94804292009934</v>
+        <v>0.3192101037897778</v>
       </c>
       <c r="R10">
-        <v>13.94804292009934</v>
+        <v>2.872890934108</v>
       </c>
       <c r="S10">
-        <v>0.01167608027208029</v>
+        <v>0.000233637462863311</v>
       </c>
       <c r="T10">
-        <v>0.01167608027208029</v>
+        <v>0.000233637462863311</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1092,49 +1092,49 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>1.73804880551705</v>
+        <v>0.02609533333333333</v>
       </c>
       <c r="H11">
-        <v>1.73804880551705</v>
+        <v>0.07828599999999999</v>
       </c>
       <c r="I11">
-        <v>0.1046457698150422</v>
+        <v>0.001482961017348462</v>
       </c>
       <c r="J11">
-        <v>0.1046457698150422</v>
+        <v>0.001482961017348462</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>50.7513799624237</v>
+        <v>50.75626633333334</v>
       </c>
       <c r="N11">
-        <v>50.7513799624237</v>
+        <v>152.268799</v>
       </c>
       <c r="O11">
-        <v>0.7056217237884105</v>
+        <v>0.653715275846002</v>
       </c>
       <c r="P11">
-        <v>0.7056217237884105</v>
+        <v>0.653715275846002</v>
       </c>
       <c r="Q11">
-        <v>88.20837532203245</v>
+        <v>1.324501688723778</v>
       </c>
       <c r="R11">
-        <v>88.20837532203245</v>
+        <v>11.920515198514</v>
       </c>
       <c r="S11">
-        <v>0.07384032848405531</v>
+        <v>0.0009694342705248172</v>
       </c>
       <c r="T11">
-        <v>0.07384032848405531</v>
+        <v>0.0009694342705248172</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.73804880551705</v>
+        <v>0.02609533333333333</v>
       </c>
       <c r="H12">
-        <v>1.73804880551705</v>
+        <v>0.07828599999999999</v>
       </c>
       <c r="I12">
-        <v>0.1046457698150422</v>
+        <v>0.001482961017348462</v>
       </c>
       <c r="J12">
-        <v>0.1046457698150422</v>
+        <v>0.001482961017348462</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.49722321995337</v>
+        <v>7.380491999999999</v>
       </c>
       <c r="N12">
-        <v>6.49722321995337</v>
+        <v>22.141476</v>
       </c>
       <c r="O12">
-        <v>0.090334131834366</v>
+        <v>0.09505703851369859</v>
       </c>
       <c r="P12">
-        <v>0.090334131834366</v>
+        <v>0.09505703851369859</v>
       </c>
       <c r="Q12">
-        <v>11.2924910566176</v>
+        <v>0.192596398904</v>
       </c>
       <c r="R12">
-        <v>11.2924910566176</v>
+        <v>1.733367590136</v>
       </c>
       <c r="S12">
-        <v>0.009453084766380742</v>
+        <v>0.0001409658825404063</v>
       </c>
       <c r="T12">
-        <v>0.009453084766380742</v>
+        <v>0.0001409658825404063</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.02609533333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.07828599999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.001482961017348462</v>
+      </c>
+      <c r="J13">
+        <v>0.001482961017348462</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>7.273554666666667</v>
+      </c>
+      <c r="N13">
+        <v>21.820664</v>
+      </c>
+      <c r="O13">
+        <v>0.09367973924784764</v>
+      </c>
+      <c r="P13">
+        <v>0.09367973924784764</v>
+      </c>
+      <c r="Q13">
+        <v>0.1898058335448889</v>
+      </c>
+      <c r="R13">
+        <v>1.708252501904</v>
+      </c>
+      <c r="S13">
+        <v>0.0001389234014199267</v>
+      </c>
+      <c r="T13">
+        <v>0.0001389234014199267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.390531666666666</v>
+      </c>
+      <c r="H14">
+        <v>7.171595</v>
+      </c>
+      <c r="I14">
+        <v>0.1358505456558151</v>
+      </c>
+      <c r="J14">
+        <v>0.1358505456558151</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>12.23245933333333</v>
+      </c>
+      <c r="N14">
+        <v>36.697378</v>
+      </c>
+      <c r="O14">
+        <v>0.1575479463924517</v>
+      </c>
+      <c r="P14">
+        <v>0.1575479463924517</v>
+      </c>
+      <c r="Q14">
+        <v>29.24208139754555</v>
+      </c>
+      <c r="R14">
+        <v>263.17873257791</v>
+      </c>
+      <c r="S14">
+        <v>0.02140297448436767</v>
+      </c>
+      <c r="T14">
+        <v>0.02140297448436767</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.390531666666666</v>
+      </c>
+      <c r="H15">
+        <v>7.171595</v>
+      </c>
+      <c r="I15">
+        <v>0.1358505456558151</v>
+      </c>
+      <c r="J15">
+        <v>0.1358505456558151</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>50.75626633333334</v>
+      </c>
+      <c r="N15">
+        <v>152.268799</v>
+      </c>
+      <c r="O15">
+        <v>0.653715275846002</v>
+      </c>
+      <c r="P15">
+        <v>0.653715275846002</v>
+      </c>
+      <c r="Q15">
+        <v>121.3344619516006</v>
+      </c>
+      <c r="R15">
+        <v>1092.010157564405</v>
+      </c>
+      <c r="S15">
+        <v>0.08880757692722105</v>
+      </c>
+      <c r="T15">
+        <v>0.08880757692722106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.73804880551705</v>
-      </c>
-      <c r="H13">
-        <v>1.73804880551705</v>
-      </c>
-      <c r="I13">
-        <v>0.1046457698150422</v>
-      </c>
-      <c r="J13">
-        <v>0.1046457698150422</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>6.65062554332238</v>
-      </c>
-      <c r="N13">
-        <v>6.65062554332238</v>
-      </c>
-      <c r="O13">
-        <v>0.09246696077278958</v>
-      </c>
-      <c r="P13">
-        <v>0.09246696077278958</v>
-      </c>
-      <c r="Q13">
-        <v>11.55911178151264</v>
-      </c>
-      <c r="R13">
-        <v>11.55911178151264</v>
-      </c>
-      <c r="S13">
-        <v>0.009676276292525876</v>
-      </c>
-      <c r="T13">
-        <v>0.009676276292525876</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.390531666666666</v>
+      </c>
+      <c r="H16">
+        <v>7.171595</v>
+      </c>
+      <c r="I16">
+        <v>0.1358505456558151</v>
+      </c>
+      <c r="J16">
+        <v>0.1358505456558151</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>7.380491999999999</v>
+      </c>
+      <c r="N16">
+        <v>22.141476</v>
+      </c>
+      <c r="O16">
+        <v>0.09505703851369859</v>
+      </c>
+      <c r="P16">
+        <v>0.09505703851369859</v>
+      </c>
+      <c r="Q16">
+        <v>17.64329984158</v>
+      </c>
+      <c r="R16">
+        <v>158.78969857422</v>
+      </c>
+      <c r="S16">
+        <v>0.01291355055051178</v>
+      </c>
+      <c r="T16">
+        <v>0.01291355055051179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.390531666666666</v>
+      </c>
+      <c r="H17">
+        <v>7.171595</v>
+      </c>
+      <c r="I17">
+        <v>0.1358505456558151</v>
+      </c>
+      <c r="J17">
+        <v>0.1358505456558151</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>7.273554666666667</v>
+      </c>
+      <c r="N17">
+        <v>21.820664</v>
+      </c>
+      <c r="O17">
+        <v>0.09367973924784764</v>
+      </c>
+      <c r="P17">
+        <v>0.09367973924784764</v>
+      </c>
+      <c r="Q17">
+        <v>17.38766275989778</v>
+      </c>
+      <c r="R17">
+        <v>156.48896483908</v>
+      </c>
+      <c r="S17">
+        <v>0.01272644369371458</v>
+      </c>
+      <c r="T17">
+        <v>0.01272644369371458</v>
       </c>
     </row>
   </sheetData>
